--- a/historias de usuario.xlsx
+++ b/historias de usuario.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\tarea-1-ciclo-2018-0-diaz-rojas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianr\Documents\tarea1v1\tarea-1-ciclo-2018-0-diaz-rojas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
     <sheet name="Connextra" sheetId="2" r:id="rId2"/>
     <sheet name="Gherkin" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Petri Heiramo</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,9 +52,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
-    <t xml:space="preserve">Juego Damasking: Product Backlog </t>
-  </si>
-  <si>
     <t>ID de la Historia</t>
   </si>
   <si>
@@ -144,12 +141,15 @@
   </si>
   <si>
     <t>Como organizador del partido me gustaria consultar la lista de jugadores en cualquier momento durante el proceso de reserva de la cancha permitiendo tener acceso a la lista previa de participantes cuando desee consultar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Backlog </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _m_k_-;\-* #,##0\ _m_k_-;_-* &quot;-&quot;??\ _m_k_-;_-@_-"/>
@@ -369,13 +369,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -383,315 +383,7 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1275,21 +967,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1304,9 +996,9 @@
       <c r="L1" s="1"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1322,7 +1014,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1337,7 +1029,7 @@
       <c r="L3" s="1"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1352,47 +1044,47 @@
       <c r="L4" s="1"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
@@ -1411,21 +1103,21 @@
         <v>10</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -1444,21 +1136,21 @@
         <v>6</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -1477,21 +1169,21 @@
         <v>4</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -1510,21 +1202,21 @@
         <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8">
         <v>5</v>
@@ -1543,13 +1235,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1564,7 +1256,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="26"/>
       <c r="C12" s="19"/>
@@ -1580,7 +1272,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="26"/>
       <c r="C13" s="19"/>
@@ -1596,7 +1288,7 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="27"/>
@@ -1605,7 +1297,7 @@
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="27"/>
@@ -1614,7 +1306,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="27"/>
@@ -1623,7 +1315,7 @@
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="27"/>
@@ -1632,7 +1324,7 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="27"/>
@@ -1641,7 +1333,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="28"/>
     </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="28"/>
       <c r="C19" s="19"/>
@@ -1657,58 +1349,58 @@
       <c r="M19" s="20"/>
       <c r="N19" s="28"/>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
@@ -1716,79 +1408,79 @@
     <mergeCell ref="A2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="J5 G7:J10 A5:H5 I5:I6 A12:B13 A7:B10 K12:N13">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A38">
-    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23 A32 A25:A30">
-    <cfRule type="expression" dxfId="35" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="52" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="53" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="54" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="32" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="55" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="56" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="57" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:M11">
-    <cfRule type="expression" dxfId="8" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="73" stopIfTrue="1">
       <formula>$B11="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="74" stopIfTrue="1">
       <formula>$B11="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="75" stopIfTrue="1">
       <formula>$B11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1838,63 +1530,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1902,12 +1594,12 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1924,35 +1616,35 @@
     <mergeCell ref="B7:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A8">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1962,54 +1654,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2018,9 +1710,9 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -2038,35 +1730,35 @@
     <mergeCell ref="B8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A8">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
